--- a/Tarea3/Libro1.xlsx
+++ b/Tarea3/Libro1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>Algoritmo</t>
   </si>
@@ -51,6 +51,30 @@
   </si>
   <si>
     <t>mil horas ♪♪</t>
+  </si>
+  <si>
+    <t>ALGORITMO</t>
+  </si>
+  <si>
+    <t>DATOS</t>
+  </si>
+  <si>
+    <t>JAVA</t>
+  </si>
+  <si>
+    <t>BUBBLE SORT</t>
+  </si>
+  <si>
+    <t>QUICK SORT</t>
+  </si>
+  <si>
+    <t>MERGE SORT</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Promedios</t>
   </si>
 </sst>
 </file>
@@ -74,7 +98,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -82,12 +106,77 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1000000"/>
+  <dimension ref="A1:V1000000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -380,7 +469,7 @@
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -397,7 +486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -417,7 +506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1000</v>
       </c>
@@ -437,7 +526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>10000</v>
       </c>
@@ -454,7 +543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1000000</v>
       </c>
@@ -471,7 +560,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -488,7 +577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -496,12 +585,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>10000</v>
       </c>
@@ -509,7 +598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>1000000</v>
       </c>
@@ -524,6 +613,386 @@
       </c>
       <c r="F12">
         <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1">
+        <v>100</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1</v>
+      </c>
+      <c r="P16" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1">
+        <v>0</v>
+      </c>
+      <c r="V16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>7</v>
+      </c>
+      <c r="I17" s="1">
+        <v>8</v>
+      </c>
+      <c r="J17" s="1">
+        <v>8</v>
+      </c>
+      <c r="K17" s="1">
+        <v>7</v>
+      </c>
+      <c r="L17" s="1">
+        <v>5</v>
+      </c>
+      <c r="M17" s="1">
+        <v>3</v>
+      </c>
+      <c r="N17" s="1">
+        <v>2</v>
+      </c>
+      <c r="O17" s="1">
+        <v>3</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>1</v>
+      </c>
+      <c r="R17" s="1">
+        <v>1</v>
+      </c>
+      <c r="S17" s="1">
+        <v>1</v>
+      </c>
+      <c r="T17" s="1">
+        <v>2</v>
+      </c>
+      <c r="U17" s="1">
+        <v>1</v>
+      </c>
+      <c r="V17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1">
+        <v>4</v>
+      </c>
+      <c r="E18" s="1">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1">
+        <v>5</v>
+      </c>
+      <c r="G18" s="1">
+        <v>5</v>
+      </c>
+      <c r="H18" s="1">
+        <v>175</v>
+      </c>
+      <c r="I18" s="1">
+        <v>161</v>
+      </c>
+      <c r="J18" s="1">
+        <v>169</v>
+      </c>
+      <c r="K18" s="1">
+        <v>166</v>
+      </c>
+      <c r="L18" s="1">
+        <v>165</v>
+      </c>
+      <c r="M18" s="1">
+        <v>6</v>
+      </c>
+      <c r="N18" s="1">
+        <v>6</v>
+      </c>
+      <c r="O18" s="1">
+        <v>7</v>
+      </c>
+      <c r="P18" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>7</v>
+      </c>
+      <c r="R18" s="1">
+        <v>3</v>
+      </c>
+      <c r="S18" s="1">
+        <v>4</v>
+      </c>
+      <c r="T18" s="1">
+        <v>4</v>
+      </c>
+      <c r="U18" s="1">
+        <v>6</v>
+      </c>
+      <c r="V18" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="C19" s="1">
+        <v>206</v>
+      </c>
+      <c r="D19" s="1">
+        <v>177</v>
+      </c>
+      <c r="E19" s="1">
+        <v>183</v>
+      </c>
+      <c r="F19" s="1">
+        <v>169</v>
+      </c>
+      <c r="G19" s="1">
+        <v>206</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" s="1">
+        <v>156</v>
+      </c>
+      <c r="N19" s="1">
+        <v>166</v>
+      </c>
+      <c r="O19" s="1">
+        <v>160</v>
+      </c>
+      <c r="P19" s="1">
+        <v>164</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>157</v>
+      </c>
+      <c r="R19" s="1">
+        <v>258</v>
+      </c>
+      <c r="S19" s="1">
+        <v>235</v>
+      </c>
+      <c r="T19" s="1">
+        <v>246</v>
+      </c>
+      <c r="U19" s="1">
+        <v>242</v>
+      </c>
+      <c r="V19" s="1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="1">
+        <f>AVERAGE(C16:G16)</f>
+        <v>0.6</v>
+      </c>
+      <c r="E20" s="1">
+        <f>AVERAGE(C17:G17)</f>
+        <v>0.6</v>
+      </c>
+      <c r="F20" s="1">
+        <f>AVERAGE(C18:G18)</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G20" s="1">
+        <f>AVERAGE(C19:G19)</f>
+        <v>188.2</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="1">
+        <f>AVERAGE(H16:L16)</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <f>AVERAGE(H17:L17)</f>
+        <v>7</v>
+      </c>
+      <c r="K20" s="1">
+        <f>AVERAGE(H18:L18)</f>
+        <v>167.2</v>
+      </c>
+      <c r="L20" s="1" t="e">
+        <f>AVERAGE(H19:L19)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N20" s="1">
+        <f>AVERAGE(M16:Q16)</f>
+        <v>0.6</v>
+      </c>
+      <c r="O20" s="1">
+        <f>AVERAGE(M17:Q17)</f>
+        <v>2</v>
+      </c>
+      <c r="P20" s="1">
+        <f>AVERAGE(M18:Q18)</f>
+        <v>6</v>
+      </c>
+      <c r="Q20" s="1">
+        <f>AVERAGE(M19:Q19)</f>
+        <v>160.6</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S20" s="1">
+        <f>AVERAGE(R16:V16)</f>
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
+        <f>AVERAGE(R17:V17)</f>
+        <v>1.2</v>
+      </c>
+      <c r="U20" s="1">
+        <f>AVERAGE(R18:V18)</f>
+        <v>4.2</v>
+      </c>
+      <c r="V20" s="1">
+        <f>AVERAGE(R19:V19)</f>
+        <v>242.4</v>
       </c>
     </row>
     <row r="1000000" spans="3:3" x14ac:dyDescent="0.25">
@@ -532,6 +1001,12 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="M15:Q15"/>
+    <mergeCell ref="R15:V15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
